--- a/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
+++ b/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -936,7 +939,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
+++ b/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5446" yWindow="275" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5446" yWindow="275" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,21 +40,12 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -155,6 +146,15 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -739,31 +739,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -785,16 +785,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="13" t="b">
         <v>1</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="4" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="13" t="b">
         <v>1</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="13" t="b">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="13"/>
     </row>
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -876,70 +876,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +952,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -965,13 +965,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -979,12 +979,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>20160710</v>
@@ -992,26 +992,26 @@
     </row>
     <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
+++ b/app/config/tables/geoweather_conditions/forms/geoweather_conditions/geoweather_conditions.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\geoweather_conditions\forms\geoweather_conditions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5446" yWindow="275" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
+    <workbookView xWindow="5440" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -130,9 +125,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>filterTypeOnCreation</t>
-  </si>
-  <si>
     <t>READ_ONLY</t>
   </si>
   <si>
@@ -155,12 +147,15 @@
   </si>
   <si>
     <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -719,25 +714,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="42.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="1"/>
+    <col min="8" max="8" width="42.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="22" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -760,16 +755,16 @@
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -783,7 +778,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -800,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.5">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -817,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -834,16 +829,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="J8" s="13"/>
     </row>
   </sheetData>
@@ -862,19 +857,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="14" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -891,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -899,16 +894,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -916,16 +911,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -933,17 +928,22 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -955,15 +955,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.77734375" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -971,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,7 +982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,7 +990,7 @@
         <v>20160710</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
